--- a/data/trans_orig/CAGE_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CAGE_R-Clase-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5161</v>
+        <v>5619</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001950187652546909</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01089377364230511</v>
+        <v>0.01185962372739153</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4958</v>
+        <v>4959</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003222825032036622</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0161670338656032</v>
+        <v>0.01616933243789187</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6748</v>
+        <v>6695</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002450270308873716</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.00864572567709777</v>
+        <v>0.008578454264610546</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>472852</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>468615</v>
+        <v>468157</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>473776</v>
@@ -824,7 +824,7 @@
         <v>0.998049812347453</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9891062263576946</v>
+        <v>0.9881403762726085</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>305692</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>301722</v>
+        <v>301721</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>306680</v>
@@ -845,7 +845,7 @@
         <v>0.9967771749679634</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9838329661343969</v>
+        <v>0.9838306675621081</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>778545</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>773709</v>
+        <v>773762</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>780457</v>
@@ -866,7 +866,7 @@
         <v>0.9975497296911263</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9913542743229022</v>
+        <v>0.9914215457353899</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6259</v>
+        <v>7309</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00559770576567675</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01705689703920083</v>
+        <v>0.01991864575059618</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5207</v>
+        <v>6293</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.00277062956298133</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01400197333530898</v>
+        <v>0.01692370883177537</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -1003,19 +1003,19 @@
         <v>3084</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8355</v>
+        <v>8995</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.004174733747196102</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001301790311774656</v>
+        <v>0.001313419214888457</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01130849227290292</v>
+        <v>0.01217550789356063</v>
       </c>
     </row>
     <row r="8">
@@ -1032,7 +1032,7 @@
         <v>364880</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>360675</v>
+        <v>359625</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>366934</v>
@@ -1041,7 +1041,7 @@
         <v>0.9944022942343232</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9829431029607995</v>
+        <v>0.9800813542494039</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         <v>370835</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>366658</v>
+        <v>365572</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>371865</v>
@@ -1062,7 +1062,7 @@
         <v>0.9972293704370186</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9859980266646909</v>
+        <v>0.9830762911682247</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1074,19 +1074,19 @@
         <v>735715</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>730444</v>
+        <v>729804</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>737837</v>
+        <v>737829</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9958252662528039</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.988691507727097</v>
+        <v>0.9878244921064391</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9986982096882253</v>
+        <v>0.9986865807851115</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>4547</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>993</v>
+        <v>1735</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9980</v>
+        <v>10082</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008382769167619462</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001831112846413458</v>
+        <v>0.003197916717599525</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01839916445753371</v>
+        <v>0.01858836707868462</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1212,19 +1212,19 @@
         <v>4547</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1716</v>
+        <v>1758</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10328</v>
+        <v>10198</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006402292637086298</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002416113131176089</v>
+        <v>0.002475926375613796</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01454247779885815</v>
+        <v>0.014359784372331</v>
       </c>
     </row>
     <row r="11">
@@ -1241,19 +1241,19 @@
         <v>537842</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>532409</v>
+        <v>532307</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>541396</v>
+        <v>540654</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9916172308323805</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.981600835542466</v>
+        <v>0.9814116329213154</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9981688871535865</v>
+        <v>0.9968020832824005</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>164</v>
@@ -1275,19 +1275,19 @@
         <v>705624</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>699843</v>
+        <v>699973</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>708455</v>
+        <v>708413</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9935977073629138</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9854575222011418</v>
+        <v>0.9856402156276691</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9975838868688239</v>
+        <v>0.9975240736243862</v>
       </c>
     </row>
     <row r="12">
@@ -1379,19 +1379,19 @@
         <v>13184</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6471</v>
+        <v>7056</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22378</v>
+        <v>22714</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01064680508669882</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00522568537421988</v>
+        <v>0.005698344375245686</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01807099043988141</v>
+        <v>0.01834272162424969</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8213</v>
+        <v>10499</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.003366030112417046</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01149855364398928</v>
+        <v>0.01469919485354637</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -1421,19 +1421,19 @@
         <v>15589</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8908</v>
+        <v>9121</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26146</v>
+        <v>26828</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.007983434090819906</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004562261116314816</v>
+        <v>0.004670919879342137</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01339010054075818</v>
+        <v>0.01373950205870954</v>
       </c>
     </row>
     <row r="14">
@@ -1450,19 +1450,19 @@
         <v>1225150</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1215956</v>
+        <v>1215620</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1231863</v>
+        <v>1231278</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9893531949133012</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9819290095601186</v>
+        <v>0.9816572783757503</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9947743146257801</v>
+        <v>0.9943016556247543</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>692</v>
@@ -1471,7 +1471,7 @@
         <v>711881</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>706072</v>
+        <v>703786</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>714285</v>
@@ -1480,7 +1480,7 @@
         <v>0.9966339698875829</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9885014463560107</v>
+        <v>0.985300805146454</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1492,19 +1492,19 @@
         <v>1937031</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1926474</v>
+        <v>1925792</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1943712</v>
+        <v>1943499</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9920165659091801</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9866098994592418</v>
+        <v>0.9862604979412903</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9954377388836851</v>
+        <v>0.9953290801206578</v>
       </c>
     </row>
     <row r="15">
@@ -1596,19 +1596,19 @@
         <v>3872</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1008</v>
+        <v>981</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9017</v>
+        <v>10907</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01104551206420967</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002876313205805771</v>
+        <v>0.002799060975675973</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02572131799336398</v>
+        <v>0.03111458587456984</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1617,19 +1617,19 @@
         <v>3848</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1017</v>
+        <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10427</v>
+        <v>11022</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006765774190865442</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001788336706291198</v>
+        <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01833284704815151</v>
+        <v>0.01937858645656178</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1638,19 +1638,19 @@
         <v>7720</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3407</v>
+        <v>3042</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16041</v>
+        <v>15390</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008397747496778544</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003705841403897334</v>
+        <v>0.003308482176074227</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01744895915226541</v>
+        <v>0.0167406517801697</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>346683</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>341538</v>
+        <v>339648</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>349547</v>
+        <v>349574</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9889544879357903</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.974278682006636</v>
+        <v>0.9688854141254302</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9971236867941942</v>
+        <v>0.9972009390243241</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>536</v>
@@ -1688,19 +1688,19 @@
         <v>564904</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>558325</v>
+        <v>557730</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>567735</v>
+        <v>568752</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9932342258091346</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9816671529518486</v>
+        <v>0.9806214135434383</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9982116632937088</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>872</v>
@@ -1709,19 +1709,19 @@
         <v>911587</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>903266</v>
+        <v>903917</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>915900</v>
+        <v>916265</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9916022525032214</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9825510408477344</v>
+        <v>0.9832593482198303</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9962941585961022</v>
+        <v>0.9966915178239258</v>
       </c>
     </row>
     <row r="18">
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5260</v>
+        <v>5342</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003546886053532097</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01763975240244477</v>
+        <v>0.0179125626565868</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5097</v>
+        <v>5089</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.00081493730378546</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.004081609446168251</v>
+        <v>0.004075341940404036</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7262</v>
+        <v>6826</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001341562696920114</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.004694134141170984</v>
+        <v>0.004412789145094671</v>
       </c>
     </row>
     <row r="20">
@@ -1884,7 +1884,7 @@
         <v>297143</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>292941</v>
+        <v>292859</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>298201</v>
@@ -1893,7 +1893,7 @@
         <v>0.9964531139464678</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9823602475975552</v>
+        <v>0.9820874373434132</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1905,7 +1905,7 @@
         <v>1247742</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1243663</v>
+        <v>1243671</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>1248760</v>
@@ -1914,7 +1914,7 @@
         <v>0.9991850626962145</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9959183905538317</v>
+        <v>0.995924658059596</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1926,7 +1926,7 @@
         <v>1544885</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1539698</v>
+        <v>1540134</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>1546960</v>
@@ -1935,7 +1935,7 @@
         <v>0.9986584373030799</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9953058658588291</v>
+        <v>0.9955872108549055</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -2030,19 +2030,19 @@
         <v>25639</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17167</v>
+        <v>16074</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>37968</v>
+        <v>37452</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007840130662877049</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005249614561870783</v>
+        <v>0.004915190881145598</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01161018343529292</v>
+        <v>0.01145246034341997</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -2051,19 +2051,19 @@
         <v>9289</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4132</v>
+        <v>4282</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17105</v>
+        <v>18093</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.00274965910756945</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001223274884045202</v>
+        <v>0.001267642333528043</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.00506347149524397</v>
+        <v>0.005355982958252931</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>33</v>
@@ -2072,19 +2072,19 @@
         <v>34927</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>24148</v>
+        <v>24073</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>48311</v>
+        <v>47817</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.005253573501593112</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003632194945294085</v>
+        <v>0.003620915027059777</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.007266615503674935</v>
+        <v>0.007192313561595733</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>3244551</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3232222</v>
+        <v>3232738</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3253023</v>
+        <v>3254116</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.992159869337123</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9883898165647073</v>
+        <v>0.9885475396565802</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9947503854381293</v>
+        <v>0.9950848091188544</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3288</v>
@@ -2122,19 +2122,19 @@
         <v>3368835</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3361019</v>
+        <v>3360031</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3373992</v>
+        <v>3373842</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9972503408924306</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9949365285047558</v>
+        <v>0.9946440170417463</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9987767251159547</v>
+        <v>0.9987323576664716</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6470</v>
@@ -2143,19 +2143,19 @@
         <v>6613387</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6600003</v>
+        <v>6600497</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6624166</v>
+        <v>6624241</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9947464264984069</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.992733384496325</v>
+        <v>0.9928076864384043</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.996367805054706</v>
+        <v>0.9963790849729403</v>
       </c>
     </row>
     <row r="24">
@@ -2489,19 +2489,19 @@
         <v>8383</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3917</v>
+        <v>3703</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16966</v>
+        <v>16786</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01917467816568911</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00895955291738304</v>
+        <v>0.008468727006722925</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03880445735566456</v>
+        <v>0.03839366394922789</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>8383</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3628</v>
+        <v>3846</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15224</v>
+        <v>16702</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01115307432263377</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004826322979782737</v>
+        <v>0.005116518104958888</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02025353450201753</v>
+        <v>0.02221995098371026</v>
       </c>
     </row>
     <row r="5">
@@ -2552,19 +2552,19 @@
         <v>428828</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>420245</v>
+        <v>420425</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>433294</v>
+        <v>433508</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9808253218343109</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9611955426443353</v>
+        <v>0.9616063360507719</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9910404470826168</v>
+        <v>0.991531272993277</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>283</v>
@@ -2586,19 +2586,19 @@
         <v>743282</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>736441</v>
+        <v>734963</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>748037</v>
+        <v>747819</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9888469256773662</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9797464654979819</v>
+        <v>0.9777800490162907</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9951736770202169</v>
+        <v>0.9948834818950412</v>
       </c>
     </row>
     <row r="6">
@@ -2690,19 +2690,19 @@
         <v>5572</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16417</v>
+        <v>18989</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01330386671573478</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002389497410031173</v>
+        <v>0.002385856799309951</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03920089402847671</v>
+        <v>0.04534281937735755</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5740</v>
+        <v>5713</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003339243880493971</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01698032792334035</v>
+        <v>0.01690329358894775</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -2732,19 +2732,19 @@
         <v>6700</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2105</v>
+        <v>1997</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17513</v>
+        <v>17207</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008853394653463128</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002781822234938286</v>
+        <v>0.002639318675597475</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02314127207148171</v>
+        <v>0.02273585824526466</v>
       </c>
     </row>
     <row r="8">
@@ -2761,19 +2761,19 @@
         <v>413225</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>402380</v>
+        <v>399808</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>417796</v>
+        <v>417798</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9866961332842652</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9607991059715235</v>
+        <v>0.9546571806226423</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9976105025899689</v>
+        <v>0.9976141432006901</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>304</v>
@@ -2782,7 +2782,7 @@
         <v>336882</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>332271</v>
+        <v>332298</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>338011</v>
@@ -2791,7 +2791,7 @@
         <v>0.996660756119506</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9830196720766595</v>
+        <v>0.9830967064110523</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -2803,19 +2803,19 @@
         <v>750108</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>739295</v>
+        <v>739601</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>754703</v>
+        <v>754811</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9911466053465369</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9768587279285182</v>
+        <v>0.9772641417547353</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9972181777650617</v>
+        <v>0.9973606813244026</v>
       </c>
     </row>
     <row r="9">
@@ -2907,19 +2907,19 @@
         <v>12172</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5619</v>
+        <v>6210</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22505</v>
+        <v>22789</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01933906721173697</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008927178132409711</v>
+        <v>0.009866753523063522</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03575566186191918</v>
+        <v>0.03620598917869221</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -2941,19 +2941,19 @@
         <v>12172</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6122</v>
+        <v>6123</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22725</v>
+        <v>23839</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01368374367716436</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006882525084652539</v>
+        <v>0.006883747800292155</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02554669859380818</v>
+        <v>0.02679907064061161</v>
       </c>
     </row>
     <row r="11">
@@ -2970,19 +2970,19 @@
         <v>617243</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>606910</v>
+        <v>606626</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>623796</v>
+        <v>623205</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9806609327882631</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9642443381380805</v>
+        <v>0.9637940108213077</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9910728218675903</v>
+        <v>0.9901332464769363</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>244</v>
@@ -3004,19 +3004,19 @@
         <v>877372</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>866819</v>
+        <v>865705</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>883422</v>
+        <v>883421</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9863162563228356</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9744533014061921</v>
+        <v>0.9732009293593877</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9931174749153474</v>
+        <v>0.9931162521997078</v>
       </c>
     </row>
     <row r="12">
@@ -3108,19 +3108,19 @@
         <v>23181</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15029</v>
+        <v>14485</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34186</v>
+        <v>35907</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02000090338575131</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01296700905052291</v>
+        <v>0.0124978700740352</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02949600526061368</v>
+        <v>0.03098040631583186</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6046</v>
+        <v>5005</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.001306475511249151</v>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.007885534831529923</v>
+        <v>0.006527896935564797</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -3150,19 +3150,19 @@
         <v>24183</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15627</v>
+        <v>16136</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>35030</v>
+        <v>36575</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0125581707880982</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008114889488963382</v>
+        <v>0.008379253232106696</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01819105834971142</v>
+        <v>0.01899340306825789</v>
       </c>
     </row>
     <row r="14">
@@ -3179,19 +3179,19 @@
         <v>1135828</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1124823</v>
+        <v>1123102</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1143980</v>
+        <v>1144524</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9799990966142487</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.970503994739386</v>
+        <v>0.9690195936841682</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9870329909494769</v>
+        <v>0.9875021299259651</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>710</v>
@@ -3200,7 +3200,7 @@
         <v>765655</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>760611</v>
+        <v>761652</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>766657</v>
@@ -3209,7 +3209,7 @@
         <v>0.9986935244887508</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9921144651684701</v>
+        <v>0.9934721030644352</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -3221,19 +3221,19 @@
         <v>1901484</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1890637</v>
+        <v>1889092</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1910040</v>
+        <v>1909531</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9874418292119018</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9818089416502886</v>
+        <v>0.9810065969317421</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9918851105110367</v>
+        <v>0.9916207467678932</v>
       </c>
     </row>
     <row r="15">
@@ -3325,19 +3325,19 @@
         <v>9371</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4606</v>
+        <v>4373</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17066</v>
+        <v>16408</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01835261714861997</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009020498689524844</v>
+        <v>0.00856394492490278</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03342317598562111</v>
+        <v>0.03213597424165641</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6938</v>
+        <v>7974</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002636800241115717</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.009110950912875004</v>
+        <v>0.01047067511551502</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -3367,19 +3367,19 @@
         <v>11379</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5912</v>
+        <v>6516</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19404</v>
+        <v>19343</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008944735336801386</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004647141423456107</v>
+        <v>0.005122278963577418</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01525326496132477</v>
+        <v>0.01520511172377663</v>
       </c>
     </row>
     <row r="17">
@@ -3396,19 +3396,19 @@
         <v>501225</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>493530</v>
+        <v>494188</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>505990</v>
+        <v>506223</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.98164738285138</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9665768240143789</v>
+        <v>0.9678640257583432</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9909795013104752</v>
+        <v>0.9914360550750968</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>701</v>
@@ -3417,7 +3417,7 @@
         <v>759514</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>754584</v>
+        <v>753548</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>761522</v>
@@ -3426,7 +3426,7 @@
         <v>0.9973631997588843</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9908890490871249</v>
+        <v>0.989529324884485</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3438,19 +3438,19 @@
         <v>1260739</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1252714</v>
+        <v>1252775</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1266206</v>
+        <v>1265602</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9910552646631986</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9847467350386752</v>
+        <v>0.9847948882762234</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9953528585765438</v>
+        <v>0.9948777210364227</v>
       </c>
     </row>
     <row r="18">
@@ -3542,19 +3542,19 @@
         <v>7146</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3223</v>
+        <v>3289</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14640</v>
+        <v>13746</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02677759611948365</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0120776673342722</v>
+        <v>0.01232394812879765</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05485520824792395</v>
+        <v>0.05150711212296834</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4956</v>
+        <v>4944</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0008886910831416133</v>
@@ -3575,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.004467542579508958</v>
+        <v>0.004456910376355038</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -3584,19 +3584,19 @@
         <v>8132</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3940</v>
+        <v>3783</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15876</v>
+        <v>15246</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.005909119985902589</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002862704573310604</v>
+        <v>0.00274888660386899</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01153603778626646</v>
+        <v>0.011078364183428</v>
       </c>
     </row>
     <row r="20">
@@ -3613,19 +3613,19 @@
         <v>259736</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>252242</v>
+        <v>253136</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>263659</v>
+        <v>263593</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9732224038805164</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9451447917520761</v>
+        <v>0.9484928878770316</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9879223326657279</v>
+        <v>0.9876760518712023</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1043</v>
@@ -3634,7 +3634,7 @@
         <v>1108365</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1104395</v>
+        <v>1104407</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>1109351</v>
@@ -3643,7 +3643,7 @@
         <v>0.9991113089168584</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.995532457420491</v>
+        <v>0.9955430896236449</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -3655,19 +3655,19 @@
         <v>1368101</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1360357</v>
+        <v>1360987</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1372293</v>
+        <v>1372450</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9940908800140974</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9884639622137337</v>
+        <v>0.9889216358165722</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9971372954266894</v>
+        <v>0.997251113396131</v>
       </c>
     </row>
     <row r="21">
@@ -3759,19 +3759,19 @@
         <v>65826</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>50648</v>
+        <v>50727</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>84173</v>
+        <v>84833</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01923655420445964</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01480107463619024</v>
+        <v>0.01482430378423208</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02459814872469382</v>
+        <v>0.02479106678794781</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -3780,19 +3780,19 @@
         <v>5124</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1998</v>
+        <v>1981</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11293</v>
+        <v>11251</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.001443377774559508</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0005626678598830604</v>
+        <v>0.0005580532265832052</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.00318113852722032</v>
+        <v>0.003169121431095988</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>66</v>
@@ -3801,19 +3801,19 @@
         <v>70950</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>54859</v>
+        <v>55769</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>89877</v>
+        <v>90616</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0101763582753047</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007868421934013263</v>
+        <v>0.007998940307915117</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0128910149534352</v>
+        <v>0.01299705780736536</v>
       </c>
     </row>
     <row r="23">
@@ -3830,19 +3830,19 @@
         <v>3356084</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3337737</v>
+        <v>3337077</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3371262</v>
+        <v>3371183</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9807634457955403</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9754018512753061</v>
+        <v>0.9752089332120522</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9851989253638097</v>
+        <v>0.9851756962157678</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3285</v>
@@ -3851,19 +3851,19 @@
         <v>3545001</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3538832</v>
+        <v>3538874</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3548127</v>
+        <v>3548144</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9985566222254405</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.99681886147278</v>
+        <v>0.9968308785689054</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9994373321401169</v>
+        <v>0.9994419467734168</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6429</v>
@@ -3872,19 +3872,19 @@
         <v>6901085</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6882158</v>
+        <v>6881419</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6917176</v>
+        <v>6916266</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9898236417246953</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9871089850465652</v>
+        <v>0.9870029421926345</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.992131578065987</v>
+        <v>0.9920010596920849</v>
       </c>
     </row>
     <row r="24">
@@ -4218,19 +4218,19 @@
         <v>4939</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1914</v>
+        <v>1907</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13687</v>
+        <v>12818</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01151125828859968</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004461498758820895</v>
+        <v>0.004444529840330248</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03189772794426949</v>
+        <v>0.02987157216875595</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4239,19 +4239,19 @@
         <v>3747</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>916</v>
+        <v>926</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11295</v>
+        <v>11166</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01079746404091512</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002639048452587824</v>
+        <v>0.002667908506863047</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03254644349440896</v>
+        <v>0.03217352399430076</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -4260,19 +4260,19 @@
         <v>8687</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3831</v>
+        <v>3838</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18270</v>
+        <v>17310</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01119208444342183</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004936098697379928</v>
+        <v>0.004944376148503892</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02353878312087729</v>
+        <v>0.02230187299780232</v>
       </c>
     </row>
     <row r="5">
@@ -4289,19 +4289,19 @@
         <v>424153</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>415405</v>
+        <v>416274</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>427178</v>
+        <v>427185</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9884887417114003</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9681022720557305</v>
+        <v>0.9701284278312441</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.995538501241179</v>
+        <v>0.9955554701596697</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>329</v>
@@ -4310,19 +4310,19 @@
         <v>343308</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>335760</v>
+        <v>335889</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>346139</v>
+        <v>346129</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9892025359590849</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9674535565055922</v>
+        <v>0.9678264760056994</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9973609515474122</v>
+        <v>0.997332091493137</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>721</v>
@@ -4331,19 +4331,19 @@
         <v>767460</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>757877</v>
+        <v>758837</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>772316</v>
+        <v>772309</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9888079155565782</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9764612168791227</v>
+        <v>0.9776981270021976</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.99506390130262</v>
+        <v>0.995055623851496</v>
       </c>
     </row>
     <row r="6">
@@ -4435,19 +4435,19 @@
         <v>3125</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8506</v>
+        <v>9019</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008283720743329255</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002427914480331933</v>
+        <v>0.002433294171144656</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02255006253418186</v>
+        <v>0.02390891725352507</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -4456,19 +4456,19 @@
         <v>3181</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8596</v>
+        <v>8402</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.008545775323907011</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002512448859703916</v>
+        <v>0.002499589633478636</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02309008794360554</v>
+        <v>0.02256817447779173</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -4477,19 +4477,19 @@
         <v>6306</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2233</v>
+        <v>2665</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12810</v>
+        <v>13398</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008413882025426258</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002978789914880595</v>
+        <v>0.003556366456465816</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01709128012374482</v>
+        <v>0.01787634015864732</v>
       </c>
     </row>
     <row r="8">
@@ -4506,19 +4506,19 @@
         <v>374102</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>368721</v>
+        <v>368208</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>376311</v>
+        <v>376309</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9917162792566707</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9774499374658179</v>
+        <v>0.9760910827464745</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9975720855196681</v>
+        <v>0.9975667058288553</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>349</v>
@@ -4527,19 +4527,19 @@
         <v>369092</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>363677</v>
+        <v>363871</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>371338</v>
+        <v>371342</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.991454224676093</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9769099120563944</v>
+        <v>0.9774318255222082</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9974875511402961</v>
+        <v>0.9975004103665214</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>700</v>
@@ -4548,19 +4548,19 @@
         <v>743194</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>736690</v>
+        <v>736102</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>747267</v>
+        <v>746835</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9915861179745737</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9829087198762555</v>
+        <v>0.9821236598413527</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9970212100851195</v>
+        <v>0.9964436335435368</v>
       </c>
     </row>
     <row r="9">
@@ -4652,19 +4652,19 @@
         <v>8774</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4073</v>
+        <v>4080</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16269</v>
+        <v>16255</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01681065393012308</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007803770622946646</v>
+        <v>0.007817036981653916</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03117254114387587</v>
+        <v>0.03114531093569079</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -4676,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7614</v>
+        <v>6545</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01269970612837075</v>
@@ -4685,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04583512362905767</v>
+        <v>0.03939724740138809</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -4694,19 +4694,19 @@
         <v>10883</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5387</v>
+        <v>5593</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19605</v>
+        <v>19993</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0158180871381549</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007829079395898093</v>
+        <v>0.008128330521637916</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02849346956841484</v>
+        <v>0.02905801459993279</v>
       </c>
     </row>
     <row r="11">
@@ -4723,19 +4723,19 @@
         <v>513140</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>505645</v>
+        <v>505659</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>517841</v>
+        <v>517834</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.983189346069877</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9688274588561242</v>
+        <v>0.9688546890643088</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9921962293770534</v>
+        <v>0.9921829630183461</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>151</v>
@@ -4744,7 +4744,7 @@
         <v>164013</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>158509</v>
+        <v>159578</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>166123</v>
@@ -4753,7 +4753,7 @@
         <v>0.9873002938716292</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9541648763709422</v>
+        <v>0.9606027525986118</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -4765,19 +4765,19 @@
         <v>677153</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>668431</v>
+        <v>668043</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>682649</v>
+        <v>682443</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9841819128618451</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9715065304315854</v>
+        <v>0.9709419854000673</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9921709206041019</v>
+        <v>0.9918716694783621</v>
       </c>
     </row>
     <row r="12">
@@ -4869,19 +4869,19 @@
         <v>17075</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10366</v>
+        <v>10078</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29639</v>
+        <v>29356</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01485223161980271</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009016432776881989</v>
+        <v>0.008766190558269807</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02578137989885701</v>
+        <v>0.02553478908074156</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -4890,19 +4890,19 @@
         <v>2863</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7794</v>
+        <v>8114</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.003466447266552446</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0009990853643238537</v>
+        <v>0.0009980171264654142</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.009437843599153221</v>
+        <v>0.009825005461906778</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -4911,19 +4911,19 @@
         <v>19938</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12048</v>
+        <v>11792</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>30651</v>
+        <v>31497</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01009233453235338</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006098792537943301</v>
+        <v>0.005968849663774627</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0155153119959152</v>
+        <v>0.01594366206520791</v>
       </c>
     </row>
     <row r="14">
@@ -4940,19 +4940,19 @@
         <v>1132563</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1119999</v>
+        <v>1120282</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1139272</v>
+        <v>1139560</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9851477683801972</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9742186201011414</v>
+        <v>0.9744652109192584</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9909835672231174</v>
+        <v>0.9912338094417302</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>795</v>
@@ -4961,19 +4961,19 @@
         <v>823013</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>818082</v>
+        <v>817762</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>825051</v>
+        <v>825052</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9965335527334476</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9905621564008467</v>
+        <v>0.9901749945380924</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9990009146356762</v>
+        <v>0.9990019828735346</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1883</v>
@@ -4982,19 +4982,19 @@
         <v>1955576</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1944863</v>
+        <v>1944017</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1963466</v>
+        <v>1963722</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9899076654676466</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9844846880040852</v>
+        <v>0.9840563379347925</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9939012074620569</v>
+        <v>0.9940311503362254</v>
       </c>
     </row>
     <row r="15">
@@ -5086,19 +5086,19 @@
         <v>8954</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4266</v>
+        <v>3814</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18331</v>
+        <v>16696</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01442487883010431</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006873594248400167</v>
+        <v>0.006145026437319843</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02953276828900222</v>
+        <v>0.02689857965331362</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5935</v>
+        <v>5574</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.001502278266326144</v>
@@ -5119,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.008039514724205584</v>
+        <v>0.007550806548749621</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -5128,19 +5128,19 @@
         <v>10063</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4440</v>
+        <v>4767</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17961</v>
+        <v>17746</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007404728027966337</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003266863234238569</v>
+        <v>0.003507727116992714</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0132169301209724</v>
+        <v>0.01305842256463258</v>
       </c>
     </row>
     <row r="17">
@@ -5157,19 +5157,19 @@
         <v>611752</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>602375</v>
+        <v>604010</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>616440</v>
+        <v>616892</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9855751211698957</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9704672317109977</v>
+        <v>0.9731014203466861</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9931264057515998</v>
+        <v>0.9938549735626798</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>698</v>
@@ -5178,7 +5178,7 @@
         <v>737135</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>732309</v>
+        <v>732670</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>738244</v>
@@ -5187,7 +5187,7 @@
         <v>0.9984977217336739</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9919604852757938</v>
+        <v>0.9924491934512504</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -5199,19 +5199,19 @@
         <v>1348887</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1340989</v>
+        <v>1341204</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1354510</v>
+        <v>1354183</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9925952719720337</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9867830698790275</v>
+        <v>0.986941577435368</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9967331367657614</v>
+        <v>0.9964922728830073</v>
       </c>
     </row>
     <row r="18">
@@ -5303,19 +5303,19 @@
         <v>5914</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2160</v>
+        <v>2751</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11957</v>
+        <v>12016</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02059552091065005</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007523507974760498</v>
+        <v>0.009579371451726881</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04164195099770747</v>
+        <v>0.04184672472845496</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -5324,19 +5324,19 @@
         <v>3878</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9032</v>
+        <v>9613</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.003583759686794038</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0008684410442674202</v>
+        <v>0.0008700567561927537</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.008347005059082412</v>
+        <v>0.008883924802832619</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -5345,19 +5345,19 @@
         <v>9792</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4976</v>
+        <v>4896</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17246</v>
+        <v>17696</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.00715150122816407</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.003634283493815779</v>
+        <v>0.003575836400479687</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01259571446051258</v>
+        <v>0.01292425955479502</v>
       </c>
     </row>
     <row r="20">
@@ -5374,19 +5374,19 @@
         <v>281231</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>275188</v>
+        <v>275129</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>284985</v>
+        <v>284394</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9794044790893499</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9583580490022923</v>
+        <v>0.9581532752715449</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9924764920252394</v>
+        <v>0.9904206285482731</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>988</v>
@@ -5395,19 +5395,19 @@
         <v>1078147</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1072993</v>
+        <v>1072412</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1081085</v>
+        <v>1081084</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.996416240313206</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9916529949409176</v>
+        <v>0.9911160751971675</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9991315589557326</v>
+        <v>0.9991299432438072</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1254</v>
@@ -5416,19 +5416,19 @@
         <v>1359378</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1351924</v>
+        <v>1351474</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1364194</v>
+        <v>1364274</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9928484987718359</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9874042855394874</v>
+        <v>0.987075740445205</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9963657165061842</v>
+        <v>0.9964241635995204</v>
       </c>
     </row>
     <row r="21">
@@ -5520,19 +5520,19 @@
         <v>48780</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>35908</v>
+        <v>35716</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>66174</v>
+        <v>65429</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01440760538666899</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01060579041446566</v>
+        <v>0.01054908081068408</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01954509820798343</v>
+        <v>0.01932498615982924</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>16</v>
@@ -5541,19 +5541,19 @@
         <v>16888</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9649</v>
+        <v>9795</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26485</v>
+        <v>27635</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.004781976504362841</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002732289834370303</v>
+        <v>0.002773574173500059</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.007499403914501507</v>
+        <v>0.00782506772835298</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>60</v>
@@ -5562,19 +5562,19 @@
         <v>65668</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>51119</v>
+        <v>50835</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>85365</v>
+        <v>85665</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.009493297412814582</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007390046086151634</v>
+        <v>0.007348921833657681</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01234083265069919</v>
+        <v>0.01238407033792752</v>
       </c>
     </row>
     <row r="23">
@@ -5591,19 +5591,19 @@
         <v>3336942</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3319548</v>
+        <v>3320293</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3349814</v>
+        <v>3350006</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.985592394613331</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9804549017920171</v>
+        <v>0.980675013840171</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9893942095855345</v>
+        <v>0.989450919189316</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3310</v>
@@ -5612,19 +5612,19 @@
         <v>3514708</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3505111</v>
+        <v>3503961</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3521947</v>
+        <v>3521801</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9952180234956371</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9925005960854986</v>
+        <v>0.992174932271647</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9972677101656297</v>
+        <v>0.9972264258265</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6490</v>
@@ -5633,19 +5633,19 @@
         <v>6851650</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6831953</v>
+        <v>6831653</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6866199</v>
+        <v>6866483</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9905067025871854</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9876591673493008</v>
+        <v>0.9876159296620721</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9926099539138484</v>
+        <v>0.9926510781663422</v>
       </c>
     </row>
     <row r="24">
@@ -5979,19 +5979,19 @@
         <v>8443</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3996</v>
+        <v>4251</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15321</v>
+        <v>15929</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02804520232940137</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0132740628234196</v>
+        <v>0.01412103688211905</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05088821179074417</v>
+        <v>0.05291022874634428</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -6000,19 +6000,19 @@
         <v>2005</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5646</v>
+        <v>5702</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01174251504426157</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003104152105447097</v>
+        <v>0.00319878841471951</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03306636586390051</v>
+        <v>0.03339054049717108</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -6021,19 +6021,19 @@
         <v>10448</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5333</v>
+        <v>5809</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17419</v>
+        <v>18028</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.02214512533563487</v>
+        <v>0.02214512533563488</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01130277108618336</v>
+        <v>0.01231114477061754</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03691939645244215</v>
+        <v>0.03821003055636368</v>
       </c>
     </row>
     <row r="5">
@@ -6050,19 +6050,19 @@
         <v>292620</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>285742</v>
+        <v>285134</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>297067</v>
+        <v>296812</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9719547976705987</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9491117882092556</v>
+        <v>0.9470897712536558</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9867259371765803</v>
+        <v>0.985878963117881</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>239</v>
@@ -6071,19 +6071,19 @@
         <v>168750</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>165109</v>
+        <v>165053</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>170225</v>
+        <v>170209</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9882574849557383</v>
+        <v>0.9882574849557385</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9669336341360986</v>
+        <v>0.9666094595028284</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9968958478945529</v>
+        <v>0.9968012115852805</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>531</v>
@@ -6092,19 +6092,19 @@
         <v>461369</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>454398</v>
+        <v>453789</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>466484</v>
+        <v>466008</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.977854874664365</v>
+        <v>0.9778548746643652</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.963080603547558</v>
+        <v>0.9617899694436366</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9886972289138166</v>
+        <v>0.9876888552293825</v>
       </c>
     </row>
     <row r="6">
@@ -6196,19 +6196,19 @@
         <v>2574</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7537</v>
+        <v>7183</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01152486216796372</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00315434407190891</v>
+        <v>0.003127419052577889</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03374310125813503</v>
+        <v>0.03215925077181905</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -6217,19 +6217,19 @@
         <v>3629</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1401</v>
+        <v>1394</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7930</v>
+        <v>7831</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02539689941143071</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009801399671488175</v>
+        <v>0.00975385304904103</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05549344474108892</v>
+        <v>0.05480221219363627</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -6238,19 +6238,19 @@
         <v>6203</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2405</v>
+        <v>2874</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11709</v>
+        <v>11482</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01693699736516996</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006565325100131665</v>
+        <v>0.007846632827354346</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03196993547695732</v>
+        <v>0.03135032533669421</v>
       </c>
     </row>
     <row r="8">
@@ -6267,19 +6267,19 @@
         <v>220788</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>215825</v>
+        <v>216179</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>222657</v>
+        <v>222663</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9884751378320362</v>
+        <v>0.9884751378320363</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.966256898741865</v>
+        <v>0.9678407492281808</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9968456559280909</v>
+        <v>0.9968725809474221</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>199</v>
@@ -6288,19 +6288,19 @@
         <v>139265</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>134964</v>
+        <v>135063</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>141493</v>
+        <v>141500</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9746031005885692</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9445065552589118</v>
+        <v>0.9451977878063641</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9901986003285119</v>
+        <v>0.990246146950959</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>420</v>
@@ -6309,19 +6309,19 @@
         <v>360053</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>354547</v>
+        <v>354774</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>363851</v>
+        <v>363382</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9830630026348302</v>
+        <v>0.98306300263483</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9680300645230426</v>
+        <v>0.9686496746633059</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9934346748998684</v>
+        <v>0.9921533671726457</v>
       </c>
     </row>
     <row r="9">
@@ -6413,19 +6413,19 @@
         <v>7946</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3316</v>
+        <v>3273</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16717</v>
+        <v>16621</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.03483459147969514</v>
+        <v>0.03483459147969513</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01453780570174453</v>
+        <v>0.01434784442419128</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07328358239099138</v>
+        <v>0.07286374085191968</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -6447,19 +6447,19 @@
         <v>7946</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3210</v>
+        <v>2560</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17693</v>
+        <v>17505</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02892916895510262</v>
+        <v>0.02892916895510261</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01168832966168106</v>
+        <v>0.009321867956716034</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06441634449180335</v>
+        <v>0.06372829866540852</v>
       </c>
     </row>
     <row r="11">
@@ -6476,19 +6476,19 @@
         <v>220163</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>211392</v>
+        <v>211488</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>224793</v>
+        <v>224836</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.965165408520305</v>
+        <v>0.9651654085203049</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9267164176090085</v>
+        <v>0.9271362591480804</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9854621942982554</v>
+        <v>0.9856521555758087</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>68</v>
@@ -6510,19 +6510,19 @@
         <v>266728</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>256981</v>
+        <v>257169</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>271464</v>
+        <v>272114</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9710708310448974</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.935583655508196</v>
+        <v>0.9362717013345915</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9883116703383189</v>
+        <v>0.9906781320432839</v>
       </c>
     </row>
     <row r="12">
@@ -6614,19 +6614,19 @@
         <v>12615</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7103</v>
+        <v>6086</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23301</v>
+        <v>21379</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02334994073296558</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01314785809832979</v>
+        <v>0.01126466448977115</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04312836496339276</v>
+        <v>0.03957060687168613</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -6635,19 +6635,19 @@
         <v>4167</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1106</v>
+        <v>1230</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11814</v>
+        <v>13566</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.01831791916763944</v>
+        <v>0.01831791916763943</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004861217847954864</v>
+        <v>0.005407487206769267</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05192649828202635</v>
+        <v>0.05962972285557473</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -6656,19 +6656,19 @@
         <v>16783</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9889</v>
+        <v>9653</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>28418</v>
+        <v>27449</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02185887034707503</v>
+        <v>0.02185887034707502</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01288012166546883</v>
+        <v>0.01257283347224427</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03701289939140989</v>
+        <v>0.03575181489157332</v>
       </c>
     </row>
     <row r="14">
@@ -6685,19 +6685,19 @@
         <v>527656</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>516970</v>
+        <v>518892</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>533168</v>
+        <v>534185</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9766500592670344</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9568716350366072</v>
+        <v>0.9604293931283139</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9868521419016704</v>
+        <v>0.9887353355102286</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>291</v>
@@ -6706,19 +6706,19 @@
         <v>223338</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>215691</v>
+        <v>213939</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>226399</v>
+        <v>226275</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9816820808323607</v>
+        <v>0.9816820808323606</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9480735017179752</v>
+        <v>0.9403702771444251</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.995138782152046</v>
+        <v>0.9945925127932308</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>798</v>
@@ -6727,19 +6727,19 @@
         <v>750993</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>739358</v>
+        <v>740327</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>757887</v>
+        <v>758123</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9781411296529252</v>
+        <v>0.978141129652925</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9629871006085903</v>
+        <v>0.9642481851084269</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9871198783345315</v>
+        <v>0.9874271665277559</v>
       </c>
     </row>
     <row r="15">
@@ -6831,19 +6831,19 @@
         <v>8758</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4584</v>
+        <v>4506</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16829</v>
+        <v>16380</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03407956878561159</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0178370763274637</v>
+        <v>0.01753225538649685</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06548582407977711</v>
+        <v>0.06373655510922116</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -6852,19 +6852,19 @@
         <v>2930</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1049</v>
+        <v>1103</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6912</v>
+        <v>6289</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01911783508311181</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006845826696698057</v>
+        <v>0.00719998643458047</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04510491600649984</v>
+        <v>0.04103585114734572</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -6873,19 +6873,19 @@
         <v>11688</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6655</v>
+        <v>6748</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20056</v>
+        <v>20141</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.02849053702203751</v>
+        <v>0.02849053702203752</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01622227726837638</v>
+        <v>0.01644922196825917</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04888943217243155</v>
+        <v>0.04909590848803368</v>
       </c>
     </row>
     <row r="17">
@@ -6902,19 +6902,19 @@
         <v>248236</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>240165</v>
+        <v>240614</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>252410</v>
+        <v>252488</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9659204312143884</v>
+        <v>0.9659204312143883</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9345141759202233</v>
+        <v>0.9362634448907787</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9821629236725363</v>
+        <v>0.9824677446135032</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>210</v>
@@ -6923,19 +6923,19 @@
         <v>150318</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>146336</v>
+        <v>146959</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>152199</v>
+        <v>152145</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.980882164916888</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9548950839934994</v>
+        <v>0.9589641488526544</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9931541733033018</v>
+        <v>0.9928000135654195</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>436</v>
@@ -6944,19 +6944,19 @@
         <v>398554</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>390186</v>
+        <v>390101</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>403587</v>
+        <v>403494</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9715094629779625</v>
+        <v>0.9715094629779623</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9511105678275683</v>
+        <v>0.9509040915119665</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9837777227316236</v>
+        <v>0.9835507780317406</v>
       </c>
     </row>
     <row r="18">
@@ -7064,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10103</v>
+        <v>11070</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01758503354373064</v>
@@ -7073,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07988392156035794</v>
+        <v>0.08753337851892518</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11201</v>
+        <v>11242</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01047514821680705</v>
@@ -7094,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05275629413493441</v>
+        <v>0.05294834056111963</v>
       </c>
     </row>
     <row r="20">
@@ -7124,16 +7124,16 @@
         <v>124247</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>116368</v>
+        <v>115401</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>126471</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9824149664562694</v>
+        <v>0.9824149664562692</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.920116078439642</v>
+        <v>0.912466621481074</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -7145,16 +7145,16 @@
         <v>210088</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>201111</v>
+        <v>201070</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>212312</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9895248517831928</v>
+        <v>0.9895248517831927</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9472437058650656</v>
+        <v>0.9470516594388799</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -7249,19 +7249,19 @@
         <v>40337</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>28412</v>
+        <v>29144</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>55149</v>
+        <v>55169</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.02466142282197163</v>
+        <v>0.02466142282197164</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01737038246177467</v>
+        <v>0.01781811735875091</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03371699930098576</v>
+        <v>0.03372926550731975</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -7270,19 +7270,19 @@
         <v>14955</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8622</v>
+        <v>8380</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24662</v>
+        <v>25202</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01724082496463102</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009940038420324086</v>
+        <v>0.00966106878015768</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02843144214108997</v>
+        <v>0.02905322058300289</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>60</v>
@@ -7291,19 +7291,19 @@
         <v>55293</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>42504</v>
+        <v>42232</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>73749</v>
+        <v>75612</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.022089828010053</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01698057091904484</v>
+        <v>0.01687206463607222</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02946318319874537</v>
+        <v>0.0302077898721948</v>
       </c>
     </row>
     <row r="23">
@@ -7320,19 +7320,19 @@
         <v>1595303</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1580491</v>
+        <v>1580471</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1607228</v>
+        <v>1606496</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9753385771780284</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9662830006990142</v>
+        <v>0.9662707344926807</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9826296175382253</v>
+        <v>0.9821818826412492</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1150</v>
@@ -7341,19 +7341,19 @@
         <v>852482</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>842775</v>
+        <v>842235</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>858815</v>
+        <v>859057</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.982759175035369</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9715685578589102</v>
+        <v>0.9709467794169975</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9900599615796758</v>
+        <v>0.9903389312198422</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2660</v>
@@ -7362,19 +7362,19 @@
         <v>2447783</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2429327</v>
+        <v>2427464</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2460572</v>
+        <v>2460844</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9779101719899471</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9705368168012548</v>
+        <v>0.9697922101278055</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9830194290809553</v>
+        <v>0.9831279353639278</v>
       </c>
     </row>
     <row r="24">
